--- a/data/Vilcún.xlsx
+++ b/data/Vilcún.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Piscicultura Codihue SpA</t>
+          <t>Salmones Reloncaví SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Piscicultura Codihue SpA</t>
+          <t>Salmones Reloncaví SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Piscicultura Codihue SpA</t>
+          <t>Salmones Reloncaví SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
